--- a/biology/Botanique/Delissea/Delissea.xlsx
+++ b/biology/Botanique/Delissea/Delissea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delissea est un genre de plantes appartenant à la famille des Campanulacées. Il a été décrit et nommé en l'honneur de Jacques Delisse, pharmacien à l'île Maurice, par Charles Gaudichaud-Beaupré dans son Voyage autour du monde entrepris par ordre du Roi[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delissea est un genre de plantes appartenant à la famille des Campanulacées. Il a été décrit et nommé en l'honneur de Jacques Delisse, pharmacien à l'île Maurice, par Charles Gaudichaud-Beaupré dans son Voyage autour du monde entrepris par ordre du Roi.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (10 décembre 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (10 décembre 2016) :
 Delissea argutidentata (E.Wimm.) H.St.John, Pacific Sci. 13: 181 (1959).
 Delissea fallax Hillebr., Fl. Hawaiian Isl.: 251 (1888).
 Delissea fauriei H.Lév., Repert. Spec. Nov. Regni Veg. 12: 505 (1913).
